--- a/fuentes/contenidos/grado08/guion03/SolicitudGrafica_LE_08_03_REC70.xlsx
+++ b/fuentes/contenidos/grado08/guion03/SolicitudGrafica_LE_08_03_REC70.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_03_CO\SOLICITUDES GRAFICAS_AUDIOS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19785" windowHeight="7650" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateCount="2" iterateDelta="10" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateCount="2" iterateDelta="10" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1044,11 +1044,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1057,7 +1057,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1065,17 +1065,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1085,7 +1085,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1093,12 +1093,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,18 +1107,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,11 +1148,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1162,10 +1162,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1175,7 +1175,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1249,16 +1249,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,23 +1266,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2322,15 +2322,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2343,7 +2343,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2351,20 +2351,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2377,15 +2363,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2398,7 +2384,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2406,20 +2392,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2432,15 +2404,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2453,7 +2425,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2461,20 +2433,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2489,13 +2447,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2508,7 +2466,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2516,20 +2474,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2542,15 +2486,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>825500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2563,7 +2507,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2571,20 +2515,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2597,15 +2527,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2618,7 +2548,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2626,20 +2556,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2652,15 +2568,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2673,7 +2589,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2681,20 +2597,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3027,34 +2929,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="2"/>
+    <col min="14" max="15" width="10.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3073,7 +2975,7 @@
         <v>Ubicación de la imagen en el recurso F6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
@@ -3104,7 +3006,7 @@
         <v>M3A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -3135,7 +3037,7 @@
         <v>M5A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -3167,7 +3069,7 @@
         <v>M6A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="17.25" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -3200,7 +3102,7 @@
         <v>M7A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3224,7 +3126,7 @@
         <v>M8A</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
         <v>40</v>
@@ -3253,7 +3155,7 @@
         <v>M9B</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3280,7 +3182,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="38.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -3320,7 +3222,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="75.75" customHeight="1">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -3361,7 +3263,7 @@
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="75.75" customHeight="1">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -3404,7 +3306,7 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="76.5" customHeight="1">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
@@ -3445,7 +3347,7 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="84.75" customHeight="1">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
@@ -3488,7 +3390,7 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="79.5" customHeight="1">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
@@ -3531,7 +3433,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="69.75" customHeight="1">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
@@ -3574,7 +3476,7 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="69.75" customHeight="1">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
@@ -3617,7 +3519,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="74.25" customHeight="1">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
@@ -3660,7 +3562,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="72" customHeight="1">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
@@ -3703,7 +3605,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="72" customHeight="1">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
@@ -3744,7 +3646,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="75.75" customHeight="1">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
@@ -3787,7 +3689,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="77.25" customHeight="1">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG12</v>
@@ -3830,7 +3732,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3865,7 +3767,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3900,7 +3802,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3935,7 +3837,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3966,7 +3868,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3997,7 +3899,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4029,7 +3931,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4060,7 +3962,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4091,7 +3993,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4122,7 +4024,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4153,7 +4055,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4184,7 +4086,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4215,7 +4117,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4247,7 +4149,7 @@
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4279,7 +4181,7 @@
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4311,7 +4213,7 @@
       <c r="K36" s="65"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4342,7 +4244,7 @@
       <c r="J37" s="70"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4373,7 +4275,7 @@
       <c r="J38" s="71"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4404,7 +4306,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4435,7 +4337,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4466,7 +4368,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4497,7 +4399,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4528,7 +4430,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4559,7 +4461,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4590,7 +4492,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4621,7 +4523,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4652,7 +4554,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4683,7 +4585,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4714,7 +4616,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4745,7 +4647,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4776,7 +4678,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4807,7 +4709,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4838,7 +4740,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4869,7 +4771,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4900,7 +4802,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4931,7 +4833,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4962,7 +4864,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4993,7 +4895,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5024,7 +4926,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5055,7 +4957,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5086,7 +4988,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5117,7 +5019,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5148,7 +5050,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5179,7 +5081,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5210,7 +5112,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5241,7 +5143,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5272,7 +5174,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5303,7 +5205,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5334,7 +5236,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5365,7 +5267,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5396,7 +5298,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5427,7 +5329,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5458,7 +5360,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5489,7 +5391,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5520,7 +5422,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5551,7 +5453,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5582,7 +5484,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5613,7 +5515,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5644,7 +5546,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5675,7 +5577,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5706,7 +5608,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5737,7 +5639,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5768,7 +5670,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5799,7 +5701,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5830,7 +5732,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5861,7 +5763,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5892,7 +5794,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5923,7 +5825,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5954,7 +5856,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5985,7 +5887,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6016,7 +5918,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6047,7 +5949,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6078,7 +5980,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6109,7 +6011,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6140,7 +6042,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6171,7 +6073,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6202,7 +6104,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6233,7 +6135,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6264,7 +6166,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6295,7 +6197,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6326,7 +6228,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6357,7 +6259,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6388,7 +6290,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6419,7 +6321,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6450,7 +6352,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6481,7 +6383,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6512,7 +6414,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6584,32 +6486,36 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D17" sqref="D17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11" style="22"/>
-    <col min="3" max="3" width="13.875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="22" customWidth="1"/>
-    <col min="5" max="7" width="11" style="22"/>
+    <col min="1" max="1" width="72.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="22"/>
+    <col min="3" max="3" width="13.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="22" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="22"/>
     <col min="8" max="11" width="11" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="22"/>
+    <col min="12" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
@@ -6619,7 +6525,7 @@
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
@@ -6631,7 +6537,7 @@
       <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="63">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
@@ -6655,7 +6561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -6683,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -6710,7 +6616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6732,7 +6638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="48" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6759,7 +6665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="47.25">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6778,7 +6684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6797,7 +6703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6816,7 +6722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="I11" s="22" t="s">
         <v>32</v>
       </c>
@@ -6827,7 +6733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6838,7 +6744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
@@ -6857,7 +6763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6874,7 +6780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
@@ -6892,7 +6798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -6916,7 +6822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
@@ -6937,7 +6843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6958,7 +6864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
@@ -6977,7 +6883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -6999,7 +6905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="H21" s="22" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -7016,122 +6922,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="K22" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="K23" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="K24" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="K25" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="K26" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="K27" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="K28" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="K29" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="K30" s="22">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="K31" s="22">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="K32" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11">
       <c r="K33" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11">
       <c r="K34" s="22">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11">
       <c r="K35" s="22">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11">
       <c r="K36" s="22">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:11">
       <c r="K37" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:11">
       <c r="K38" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:11">
       <c r="K39" s="22">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:11">
       <c r="K40" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:11">
       <c r="K41" s="22">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:11">
       <c r="K42" s="22">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:11">
       <c r="K43" s="22">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:11">
       <c r="K44" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:11">
       <c r="K45" s="22" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC50</v>
@@ -7150,169 +7056,181 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>825500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7325,22 +7243,22 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
     <col min="3" max="3" width="17" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="22" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="27.25" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" style="22" customWidth="1"/>
     <col min="10" max="10" width="44.5" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="22"/>
+    <col min="11" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
@@ -7367,7 +7285,7 @@
       </c>
       <c r="I1" s="107"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="108"/>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -7382,7 +7300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -7407,7 +7325,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
@@ -7436,7 +7354,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>77</v>
       </c>
@@ -7465,7 +7383,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
@@ -7494,7 +7412,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A7" s="42" t="s">
         <v>58</v>
       </c>
@@ -7519,7 +7437,7 @@
       </c>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
@@ -7548,7 +7466,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A9" s="42" t="s">
         <v>82</v>
       </c>
@@ -7577,7 +7495,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
@@ -7606,7 +7524,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A11" s="42" t="s">
         <v>86</v>
       </c>
@@ -7631,7 +7549,7 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
@@ -7660,7 +7578,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
@@ -7689,7 +7607,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="14.75" customHeight="1">
       <c r="A14" s="44" t="s">
         <v>94</v>
       </c>
@@ -7712,7 +7630,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.75" customHeight="1">
       <c r="A15" s="75" t="s">
         <v>96</v>
       </c>
@@ -7738,7 +7656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="14.75" customHeight="1">
       <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
@@ -7766,7 +7684,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="14.75" customHeight="1">
       <c r="A17" s="42" t="s">
         <v>103</v>
       </c>
@@ -7794,7 +7712,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="14.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -7820,7 +7738,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="14.75" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
@@ -7844,7 +7762,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="14.75" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>137</v>
       </c>
@@ -7868,7 +7786,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="14.75" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>137</v>
       </c>
@@ -7892,7 +7810,7 @@
       <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="14.75" customHeight="1">
       <c r="A22" s="44" t="s">
         <v>132</v>
       </c>
@@ -7916,7 +7834,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="14.75" customHeight="1">
       <c r="A23" s="42" t="s">
         <v>132</v>
       </c>
@@ -7945,7 +7863,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="14.75" customHeight="1">
       <c r="A24" s="42" t="s">
         <v>134</v>
       </c>
@@ -7968,7 +7886,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="72"/>
     </row>
-    <row r="25" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="14.75" customHeight="1">
       <c r="A25" s="42" t="s">
         <v>135</v>
       </c>
@@ -7992,7 +7910,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="14.75" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>135</v>
       </c>
@@ -8021,7 +7939,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="14.75" customHeight="1">
       <c r="A27" s="42" t="s">
         <v>138</v>
       </c>
@@ -8045,7 +7963,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="14.75" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>138</v>
       </c>
@@ -8069,7 +7987,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="14.75" customHeight="1">
       <c r="A29" s="42" t="s">
         <v>138</v>
       </c>
@@ -8098,7 +8016,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="14.75" customHeight="1">
       <c r="A30" s="42" t="s">
         <v>139</v>
       </c>
@@ -8121,7 +8039,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="14.75" customHeight="1">
       <c r="A31" s="42" t="s">
         <v>140</v>
       </c>
@@ -8138,7 +8056,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="14.75" customHeight="1">
       <c r="A32" s="42" t="s">
         <v>141</v>
       </c>
@@ -8153,7 +8071,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.75" customHeight="1">
       <c r="A33" s="42" t="s">
         <v>136</v>
       </c>
@@ -8174,7 +8092,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.75" customHeight="1">
       <c r="A34" s="42" t="s">
         <v>142</v>
       </c>
@@ -8191,7 +8109,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.75" customHeight="1">
       <c r="A35" s="42" t="s">
         <v>95</v>
       </c>
@@ -8220,7 +8138,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.75" customHeight="1">
       <c r="A36" s="42" t="s">
         <v>95</v>
       </c>
@@ -8249,7 +8167,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.75" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>143</v>
       </c>
@@ -8272,7 +8190,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.75" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>143</v>
       </c>
@@ -8295,13 +8213,13 @@
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="50"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="51" t="s">
         <v>108</v>
       </c>
@@ -8315,7 +8233,7 @@
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="54" t="s">
         <v>109</v>
       </c>
@@ -8329,7 +8247,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="54" t="s">
         <v>110</v>
       </c>
@@ -8343,7 +8261,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="31.5">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
@@ -8357,7 +8275,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="54" t="s">
         <v>112</v>
       </c>
@@ -8371,7 +8289,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="47.25">
       <c r="A46" s="54" t="s">
         <v>162</v>
       </c>
@@ -8398,6 +8316,10 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>